--- a/Tabela Cetesb/meuarquivo.xlsx
+++ b/Tabela Cetesb/meuarquivo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://servmar365-my.sharepoint.com/personal/henrique_canhadas_servmarambiental_com/Documents/Documentos/Codigos/GitHub/Python/Tabela Cetesb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_747DE7A7DDCAD4E8A6BFB1F05A5ED87656CDEC11" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03288B15-D066-41B3-B7CF-EAE98EB77207}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_7F1D64B8DD7ADDAEB7CAC130525ED87656CD0CFE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C7D0581-5CA9-4E4F-83E0-947AEDF88B2E}"/>
   <bookViews>
-    <workbookView xWindow="34992" yWindow="0" windowWidth="11088" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34560" yWindow="0" windowWidth="11520" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="184">
   <si>
     <t>INORGÂNICOS</t>
   </si>
   <si>
-    <t>Antimônio (1)</t>
+    <t>Antimônio(1)</t>
   </si>
   <si>
     <t>7440-36-0</t>
   </si>
   <si>
-    <t>Arsênio (1)</t>
+    <t>Arsênio(1)</t>
   </si>
   <si>
     <t>7440-38-2</t>
@@ -64,13 +64,13 @@
     <t>7439-92-1</t>
   </si>
   <si>
-    <t>Cobalto (1)</t>
+    <t>Cobalto(1)</t>
   </si>
   <si>
     <t>7440-48-4</t>
   </si>
   <si>
-    <t>Cobre (2)</t>
+    <t>Cobre(2)</t>
   </si>
   <si>
     <t>7440-50-8</t>
@@ -79,13 +79,13 @@
     <t>10000 (a)</t>
   </si>
   <si>
-    <t>Crômio total (1)</t>
+    <t>Crômiototal(1)</t>
   </si>
   <si>
     <t>7440-47-3</t>
   </si>
   <si>
-    <t>Crômio hexavalente</t>
+    <t>Crômiohexavalente</t>
   </si>
   <si>
     <t>18540-29-9</t>
@@ -103,19 +103,19 @@
     <t>7439-98-7</t>
   </si>
   <si>
-    <t>Níquel (2)</t>
+    <t>Níquel(2)</t>
   </si>
   <si>
     <t>7440-02-0</t>
   </si>
   <si>
-    <t>Nitrato (como N)</t>
+    <t>Nitrato(comoN)</t>
   </si>
   <si>
     <t>14797-55-8</t>
   </si>
   <si>
-    <t>Prata (1)</t>
+    <t>Prata(1)</t>
   </si>
   <si>
     <t>7440-22-4</t>
@@ -193,7 +193,7 @@
     <t>207-08-9</t>
   </si>
   <si>
-    <t>Benzo(g,h,i)perileno (3)</t>
+    <t>Benzo(g,h,i)perileno(3)</t>
   </si>
   <si>
     <t>191-24-2</t>
@@ -217,10 +217,7 @@
     <t>53-70-3</t>
   </si>
   <si>
-    <t>Fenantreno (3,4)</t>
-  </si>
-  <si>
-    <t>85-01-8</t>
+    <t>Fenantreno(3,4)</t>
   </si>
   <si>
     <t>Indeno(1,2,3-c,d)pireno</t>
@@ -238,7 +235,7 @@
     <t>BENZENOS CLORADOS</t>
   </si>
   <si>
-    <t>Clorobenzeno (Mono)</t>
+    <t>Clorobenzeno(Mono)</t>
   </si>
   <si>
     <t>108-90-7</t>
@@ -250,7 +247,7 @@
     <t>95-50-1</t>
   </si>
   <si>
-    <t>1,3-Diclorobenzeno (3)</t>
+    <t>1,3-Diclorobenzeno(3)</t>
   </si>
   <si>
     <t>541-73-1</t>
@@ -277,19 +274,19 @@
     <t>120-82-1</t>
   </si>
   <si>
-    <t>1,3,5 Triclorobenzeno (3)</t>
+    <t>1,3,5Triclorobenzeno(3)</t>
   </si>
   <si>
     <t>108-70-3</t>
   </si>
   <si>
-    <t>1,2,3,4- Tetraclorobenzeno (3)</t>
+    <t>1,2,3,4-Tetraclorobenzeno(3)</t>
   </si>
   <si>
     <t>634-66-2</t>
   </si>
   <si>
-    <t>1,2,3,5- Tetraclorobenzeno (3)</t>
+    <t>1,2,3,5-Tetraclorobenzeno(3)</t>
   </si>
   <si>
     <t>634-90-2</t>
@@ -331,10 +328,7 @@
     <t>ETENOS CLORADOS</t>
   </si>
   <si>
-    <t>Cloreto de vinila</t>
-  </si>
-  <si>
-    <t>75-01-4</t>
+    <t>Cloretodevinila</t>
   </si>
   <si>
     <t>1,1-Dicloroeteno</t>
@@ -343,7 +337,7 @@
     <t>75-35-4</t>
   </si>
   <si>
-    <t>1,2-Dicloroeteno - cis</t>
+    <t>1,2-Dicloroeteno-cis</t>
   </si>
   <si>
     <t>156-59-2</t>
@@ -352,19 +346,16 @@
     <t>50 (b)</t>
   </si>
   <si>
-    <t>1,2-Dicloroeteno - trans</t>
+    <t>1,2-Dicloroeteno-trans</t>
   </si>
   <si>
     <t>156-60-5</t>
   </si>
   <si>
-    <t>Tricloroeteno - TCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79-01-6	</t>
-  </si>
-  <si>
-    <t>Tetracloroeteno - PCE</t>
+    <t>Tricloroeteno-TCE</t>
+  </si>
+  <si>
+    <t>Tetracloroeteno-PCE</t>
   </si>
   <si>
     <t>127-18-4</t>
@@ -373,10 +364,7 @@
     <t>METANOS CLORADOS</t>
   </si>
   <si>
-    <t>Cloreto de Metileno</t>
-  </si>
-  <si>
-    <t>75-09-2</t>
+    <t>CloretodeMetileno</t>
   </si>
   <si>
     <t>Clorofórmio</t>
@@ -385,7 +373,7 @@
     <t>67-66-3</t>
   </si>
   <si>
-    <t>Tetracloreto de carbono</t>
+    <t>Tetracloretodecarbono</t>
   </si>
   <si>
     <t>56-23-5</t>
@@ -394,7 +382,7 @@
     <t>FENÓIS CLORADOS</t>
   </si>
   <si>
-    <t>2-Clorofenol (o)</t>
+    <t>2-Clorofenol(o)</t>
   </si>
   <si>
     <t>95-57-8</t>
@@ -406,7 +394,7 @@
     <t>120-83-2</t>
   </si>
   <si>
-    <t>3,4 Diclorofenol (3,4)</t>
+    <t>3,4Diclorofenol(3,4)</t>
   </si>
   <si>
     <t>95-77-2</t>
@@ -421,10 +409,7 @@
     <t>2,4,6-Triclorofenol</t>
   </si>
   <si>
-    <t xml:space="preserve">88-06-2	</t>
-  </si>
-  <si>
-    <t>2,3,4,5- Tetraclorofenol (3,4)</t>
+    <t>2,3,4,5-Tetraclorofenol(3,4)</t>
   </si>
   <si>
     <t>4901-51-3</t>
@@ -436,7 +421,7 @@
     <t>58-90-2</t>
   </si>
   <si>
-    <t>Pentaclorofenol (PCP)</t>
+    <t>Pentaclorofenol(PCP)</t>
   </si>
   <si>
     <t>87-86-5</t>
@@ -445,7 +430,7 @@
     <t>FENÓIS NÃO CLORADOS</t>
   </si>
   <si>
-    <t>Cresóis totais</t>
+    <t>Cresóistotais</t>
   </si>
   <si>
     <t>1319-77-3</t>
@@ -466,25 +451,25 @@
     <t>ÉSTERES FTÁLICOS</t>
   </si>
   <si>
-    <t>Dietilexil ftalato (DEHP)</t>
+    <t>Dietilexilftalato(DEHP)</t>
   </si>
   <si>
     <t>117-81-7</t>
   </si>
   <si>
-    <t>Dietil ftalato</t>
+    <t>Dietilftalato</t>
   </si>
   <si>
     <t>84-66-2</t>
   </si>
   <si>
-    <t>Dimetil ftalato (1)</t>
+    <t>Dimetilftalato(1)</t>
   </si>
   <si>
     <t>131-11-3</t>
   </si>
   <si>
-    <t>Di-n-butil ftalato</t>
+    <t>Di-n-butilftalato</t>
   </si>
   <si>
     <t>84-74-2</t>
@@ -550,19 +535,19 @@
     <t>50-29-3</t>
   </si>
   <si>
-    <t>HCH alfa</t>
+    <t>HCHalfa</t>
   </si>
   <si>
     <t>319-84-6</t>
   </si>
   <si>
-    <t>HCH beta</t>
+    <t>HCHbeta</t>
   </si>
   <si>
     <t>319-85-7</t>
   </si>
   <si>
-    <t>HCH – gama (Lindano)</t>
+    <t>HCH–gama(Lindano)</t>
   </si>
   <si>
     <t>58-89-9</t>
@@ -571,13 +556,13 @@
     <t>OUTROS</t>
   </si>
   <si>
-    <t>PCBs Indicadores (5)</t>
+    <t>PCBsIndicadores(5)</t>
   </si>
   <si>
     <t>NA</t>
   </si>
   <si>
-    <t>TBT e seus compostos(6)</t>
+    <t>TBTeseuscompostos(6)</t>
   </si>
   <si>
     <t>Anilina</t>
@@ -586,15 +571,18 @@
     <t>62-53-3</t>
   </si>
   <si>
-    <t>Dioxinas (PCDDs) e Furanos (PCDFs) (ng TEQ WHO    Kg-1
+    <t>Dioxinas(PCDDs)eFuranos(PCDFs)(ngTEQWHOKg-1
 05
-peso seco) (7)</t>
+pesoseco)(7)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -604,7 +592,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -615,6 +603,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -630,15 +624,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -946,24 +946,25 @@
   <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.08984375" customWidth="1"/>
-    <col min="2" max="6" width="13" customWidth="1"/>
+    <col min="1" max="1" width="61" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -1009,7 +1010,7 @@
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1">
@@ -1306,14 +1307,14 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
@@ -1416,14 +1417,14 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
@@ -1589,8 +1590,8 @@
       <c r="A34" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>66</v>
+      <c r="B34" s="2">
+        <v>67580</v>
       </c>
       <c r="C34" s="1">
         <v>15</v>
@@ -1607,10 +1608,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="C35" s="1">
         <v>3.4</v>
@@ -1627,10 +1628,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="C36" s="1">
         <v>1.1000000000000001</v>
@@ -1646,21 +1647,21 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
+      <c r="A37" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="C38" s="1">
         <v>1.6</v>
@@ -1677,10 +1678,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="C39" s="1">
         <v>9.1999999999999993</v>
@@ -1697,10 +1698,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>9</v>
@@ -1717,10 +1718,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="C41" s="1">
         <v>0.3</v>
@@ -1737,10 +1738,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="C42" s="1">
         <v>0.4</v>
@@ -1752,15 +1753,15 @@
         <v>6.1</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="C43" s="1">
         <v>0.4</v>
@@ -1772,16 +1773,16 @@
         <v>8.4</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="C44" s="1" t="s">
         <v>9</v>
       </c>
@@ -1792,15 +1793,15 @@
         <v>9</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>9</v>
@@ -1817,10 +1818,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>9</v>
@@ -1837,10 +1838,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="C47" s="1">
         <v>0.3</v>
@@ -1857,10 +1858,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="C48" s="1">
         <v>0.2</v>
@@ -1876,21 +1877,21 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
+      <c r="A49" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="C50" s="1">
         <v>0.1</v>
@@ -1907,10 +1908,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="C51" s="1">
         <v>0.01</v>
@@ -1927,10 +1928,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="C52" s="1">
         <v>140</v>
@@ -1946,21 +1947,21 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
+      <c r="A53" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
+      </c>
+      <c r="B54" s="2">
+        <v>63923</v>
       </c>
       <c r="C54" s="1">
         <v>1E-3</v>
@@ -1977,10 +1978,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C55" s="1">
         <v>2.8</v>
@@ -1997,10 +1998,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C56" s="1">
         <v>0.08</v>
@@ -2012,15 +2013,15 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C57" s="1">
         <v>0.7</v>
@@ -2032,15 +2033,15 @@
         <v>5.4</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
+      </c>
+      <c r="B58" s="2">
+        <v>65386</v>
       </c>
       <c r="C58" s="1">
         <v>0.03</v>
@@ -2057,10 +2058,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C59" s="1">
         <v>0.6</v>
@@ -2076,21 +2077,21 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
+      <c r="A60" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
+      </c>
+      <c r="B61" s="2">
+        <v>64164</v>
       </c>
       <c r="C61" s="1">
         <v>0.1</v>
@@ -2107,10 +2108,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C62" s="1">
         <v>0.1</v>
@@ -2127,10 +2128,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C63" s="1">
         <v>0.03</v>
@@ -2146,21 +2147,21 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
+      <c r="A64" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C65" s="1">
         <v>0.6</v>
@@ -2177,10 +2178,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C66" s="1">
         <v>0.5</v>
@@ -2197,10 +2198,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C67" s="1">
         <v>1</v>
@@ -2217,10 +2218,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C68" s="1">
         <v>68</v>
@@ -2237,10 +2238,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
+      </c>
+      <c r="B69" s="2">
+        <v>68821</v>
       </c>
       <c r="C69" s="1">
         <v>0.6</v>
@@ -2257,10 +2258,10 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C70" s="1">
         <v>7</v>
@@ -2277,10 +2278,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C71" s="1">
         <v>34</v>
@@ -2297,10 +2298,10 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C72" s="1">
         <v>7.0000000000000007E-2</v>
@@ -2316,21 +2317,21 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
+      <c r="A73" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C74" s="1">
         <v>14</v>
@@ -2347,10 +2348,10 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>9</v>
@@ -2367,10 +2368,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C76" s="1">
         <v>24</v>
@@ -2386,21 +2387,21 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A77" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
+      <c r="A77" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C78" s="1">
         <v>36</v>
@@ -2417,10 +2418,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C79" s="1">
         <v>33</v>
@@ -2437,10 +2438,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C80" s="1">
         <v>0.5</v>
@@ -2457,10 +2458,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C81" s="1">
         <v>44</v>
@@ -2476,21 +2477,21 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A82" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
+      <c r="A82" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C83" s="1">
         <v>0.4</v>
@@ -2502,15 +2503,15 @@
         <v>6</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C84" s="1">
         <v>0.3</v>
@@ -2522,15 +2523,15 @@
         <v>5.9</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C85" s="1">
         <v>0.8</v>
@@ -2547,10 +2548,10 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C86" s="1">
         <v>0.3</v>
@@ -2567,10 +2568,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C87" s="1">
         <v>4.7</v>
@@ -2582,15 +2583,15 @@
         <v>66</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C88" s="1">
         <v>1</v>
@@ -2602,15 +2603,15 @@
         <v>23</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C89" s="1">
         <v>1.2</v>
@@ -2622,15 +2623,15 @@
         <v>25</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C90" s="1">
         <v>5.5</v>
@@ -2642,15 +2643,15 @@
         <v>82</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C91" s="1">
         <v>2E-3</v>
@@ -2667,10 +2668,10 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C92" s="1">
         <v>0.01</v>
@@ -2687,10 +2688,10 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C93" s="1">
         <v>8.0000000000000002E-3</v>
@@ -2706,21 +2707,21 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A94" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
+      <c r="A94" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C95" s="1">
         <v>0.01</v>
@@ -2737,10 +2738,10 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C96" s="1">
         <v>16</v>
@@ -2757,10 +2758,10 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C97" s="1">
         <v>0.15</v>
@@ -2777,10 +2778,10 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C98" s="1">
         <v>7.5</v>

--- a/Tabela Cetesb/meuarquivo.xlsx
+++ b/Tabela Cetesb/meuarquivo.xlsx
@@ -14,7 +14,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="328">
+  <si>
+    <t>Analyte</t>
+  </si>
+  <si>
+    <t>CAS</t>
+  </si>
+  <si>
+    <t>Agrícola</t>
+  </si>
+  <si>
+    <t>Residencial</t>
+  </si>
+  <si>
+    <t>Industrial</t>
+  </si>
+  <si>
+    <t>Água</t>
+  </si>
   <si>
     <t>Antimônio (1)</t>
   </si>
@@ -276,24 +294,712 @@
 peso seco) (7)</t>
   </si>
   <si>
-    <t>VRQ – Valor de Referência de Qualidade; VP – Valor de Prevenção; VI – Valor de Intervenção
-(1) Mantidos os valores orientadores da Resolução CONAMA 420/2009.
-(2) Mantidos os valores de prevenção da Resolução CONAMA 420/2009.
-(3) Substâncias que não constam da planilha CETESB (versão maio de 2013).
-(4) Mantidos os valores de intervenção da Resolução CONAMA 420/2009.
-(5) Somatória  dos  congêneres  28,  52,  101,  118,138,153,180  para  investigação  confirmatória;  na  investigação detalhada a lista de congêneres deve ser ampliada.
-(6) Valores derivados com as propriedades do óxido de tributil (CAS nº 56-35-9).
-(7) Somatória de toxicidade equivalente (TEQ) calculada a partir dos fatores de equivalência de toxicidade (TEFs  - WHO 2005) para cada congênere de dioxinas e furanos (VAN DEN BERG, 2006).
-(a) Adotado valor limite de 1% do peso seco do solo (10.000 mg kg-1).
-(b) Somatória dos isômeros ou metabólitos.
-(c)  Somatória de endossulfan e sais.</t>
-  </si>
-  <si>
-    <t>Obs.:  Na  determinação  de  substância  inorgânica  no  solo,  para  a  digestão  ácida,  seguir  as  recomendações  dos
-métodos 3050 e 3051 (USEPA-SW-846), ou procedimento equivalente, exceto para mercúrio.</t>
-  </si>
-  <si>
-    <t>Referência: VAN DEN BERG, M; BIRNBAUM, LS; DENISON, M; et al.  (2006). The 2005 World Health Organization re- evaluation of human and mammalian toxic equivalency factors for dioxins and dioxin-like compounds. Toxicology Sci 93(2):223-241.</t>
+    <t>7440-36-0</t>
+  </si>
+  <si>
+    <t>7440-38-2</t>
+  </si>
+  <si>
+    <t>7440-39-3</t>
+  </si>
+  <si>
+    <t>7440-42-8</t>
+  </si>
+  <si>
+    <t>7440-43-9</t>
+  </si>
+  <si>
+    <t>7439-92-1</t>
+  </si>
+  <si>
+    <t>7440-48-4</t>
+  </si>
+  <si>
+    <t>7440-50-8</t>
+  </si>
+  <si>
+    <t>7440-47-3</t>
+  </si>
+  <si>
+    <t>18540-29-9</t>
+  </si>
+  <si>
+    <t>7439-97-6</t>
+  </si>
+  <si>
+    <t>7439-98-7</t>
+  </si>
+  <si>
+    <t>7440-02-0</t>
+  </si>
+  <si>
+    <t>14797-55-8</t>
+  </si>
+  <si>
+    <t>7440-22-4</t>
+  </si>
+  <si>
+    <t>7782-49-2</t>
+  </si>
+  <si>
+    <t>7440-66-6</t>
+  </si>
+  <si>
+    <t>71-43-2</t>
+  </si>
+  <si>
+    <t>100-42-5</t>
+  </si>
+  <si>
+    <t>100-41-4</t>
+  </si>
+  <si>
+    <t>108-88-3</t>
+  </si>
+  <si>
+    <t>1330-20-7</t>
+  </si>
+  <si>
+    <t>120-12-7</t>
+  </si>
+  <si>
+    <t>56-55-3</t>
+  </si>
+  <si>
+    <t>205-99-2</t>
+  </si>
+  <si>
+    <t>207-08-9</t>
+  </si>
+  <si>
+    <t>191-24-2</t>
+  </si>
+  <si>
+    <t>50-32-8</t>
+  </si>
+  <si>
+    <t>218-01-9</t>
+  </si>
+  <si>
+    <t>53-70-3</t>
+  </si>
+  <si>
+    <t>85-01-8</t>
+  </si>
+  <si>
+    <t>193-39-5</t>
+  </si>
+  <si>
+    <t>91-20-3</t>
+  </si>
+  <si>
+    <t>108-90-7</t>
+  </si>
+  <si>
+    <t>95-50-1</t>
+  </si>
+  <si>
+    <t>541-73-1</t>
+  </si>
+  <si>
+    <t>106-46-7</t>
+  </si>
+  <si>
+    <t>87-61-6</t>
+  </si>
+  <si>
+    <t>120-82-1</t>
+  </si>
+  <si>
+    <t>108-70-3</t>
+  </si>
+  <si>
+    <t>634-66-2</t>
+  </si>
+  <si>
+    <t>634-90-2</t>
+  </si>
+  <si>
+    <t>95-94-3</t>
+  </si>
+  <si>
+    <t>118-74-1</t>
+  </si>
+  <si>
+    <t>75-34-3</t>
+  </si>
+  <si>
+    <t>107-06-2</t>
+  </si>
+  <si>
+    <t>71-55-6</t>
+  </si>
+  <si>
+    <t>75-01-4</t>
+  </si>
+  <si>
+    <t>75-35-4</t>
+  </si>
+  <si>
+    <t>156-59-2</t>
+  </si>
+  <si>
+    <t>156-60-5</t>
+  </si>
+  <si>
+    <t>79-01-6</t>
+  </si>
+  <si>
+    <t>127-18-4</t>
+  </si>
+  <si>
+    <t>75-09-2</t>
+  </si>
+  <si>
+    <t>67-66-3</t>
+  </si>
+  <si>
+    <t>56-23-5</t>
+  </si>
+  <si>
+    <t>95-57-8</t>
+  </si>
+  <si>
+    <t>120-83-2</t>
+  </si>
+  <si>
+    <t>95-77-2</t>
+  </si>
+  <si>
+    <t>95-95-4</t>
+  </si>
+  <si>
+    <t>88-06-2</t>
+  </si>
+  <si>
+    <t>4901-51-3</t>
+  </si>
+  <si>
+    <t>58-90-2</t>
+  </si>
+  <si>
+    <t>87-86-5</t>
+  </si>
+  <si>
+    <t>1319-77-3</t>
+  </si>
+  <si>
+    <t>106-44-5</t>
+  </si>
+  <si>
+    <t>108-95-2</t>
+  </si>
+  <si>
+    <t>117-81-7</t>
+  </si>
+  <si>
+    <t>84-66-2</t>
+  </si>
+  <si>
+    <t>131-11-3</t>
+  </si>
+  <si>
+    <t>84-74-2</t>
+  </si>
+  <si>
+    <t>309-00-2</t>
+  </si>
+  <si>
+    <t>60-57-1</t>
+  </si>
+  <si>
+    <t>72-20-8</t>
+  </si>
+  <si>
+    <t>1563-66-2</t>
+  </si>
+  <si>
+    <t>115-29-7</t>
+  </si>
+  <si>
+    <t>72-54-8</t>
+  </si>
+  <si>
+    <t>72-55-9</t>
+  </si>
+  <si>
+    <t>50-29-3</t>
+  </si>
+  <si>
+    <t>319-84-6</t>
+  </si>
+  <si>
+    <t>319-85-7</t>
+  </si>
+  <si>
+    <t>58-89-9</t>
+  </si>
+  <si>
+    <t>62-53-3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>760</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>1900</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>2300</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>9.2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>0.001</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>0.002</t>
+  </si>
+  <si>
+    <t>0.008</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>1300</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>2100</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>480</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>7000</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>4600</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>7300</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>4400</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>10000 (a)</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>3800</t>
+  </si>
+  <si>
+    <t>640</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>1600</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>5.9</t>
+  </si>
+  <si>
+    <t>8.3</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>8.4</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>690</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>9.4</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>960</t>
+  </si>
+  <si>
+    <t>9.6</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>370</t>
+  </si>
+  <si>
+    <t>730</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>850</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>2400</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>1800</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>900</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>20 (b)</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>50 (b)</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
 </sst>
 </file>
@@ -651,460 +1357,1675 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A90"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E6" t="s">
+        <v>269</v>
+      </c>
+      <c r="F6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D7" t="s">
+        <v>234</v>
+      </c>
+      <c r="E7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E8" t="s">
+        <v>271</v>
+      </c>
+      <c r="F8" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" t="s">
+        <v>236</v>
+      </c>
+      <c r="E9" t="s">
+        <v>272</v>
+      </c>
+      <c r="F9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E10" t="s">
+        <v>273</v>
+      </c>
+      <c r="F10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D11" t="s">
+        <v>238</v>
+      </c>
+      <c r="E11" t="s">
+        <v>231</v>
+      </c>
+      <c r="F11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12" t="s">
+        <v>239</v>
+      </c>
+      <c r="E12" t="s">
+        <v>216</v>
+      </c>
+      <c r="F12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13" t="s">
+        <v>240</v>
+      </c>
+      <c r="E13" t="s">
+        <v>274</v>
+      </c>
+      <c r="F13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" t="s">
+        <v>185</v>
+      </c>
+      <c r="D14" t="s">
+        <v>241</v>
+      </c>
+      <c r="E14" t="s">
+        <v>275</v>
+      </c>
+      <c r="F14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" t="s">
+        <v>178</v>
+      </c>
+      <c r="D15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E15" t="s">
+        <v>178</v>
+      </c>
+      <c r="F15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16" t="s">
+        <v>190</v>
+      </c>
+      <c r="E16" t="s">
+        <v>262</v>
+      </c>
+      <c r="F16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" t="s">
+        <v>242</v>
+      </c>
+      <c r="E17" t="s">
+        <v>276</v>
+      </c>
+      <c r="F17" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" t="s">
+        <v>188</v>
+      </c>
+      <c r="D18" t="s">
+        <v>243</v>
+      </c>
+      <c r="E18" t="s">
+        <v>272</v>
+      </c>
+      <c r="F18" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" t="s">
+        <v>189</v>
+      </c>
+      <c r="D19" t="s">
+        <v>209</v>
+      </c>
+      <c r="E19" t="s">
+        <v>191</v>
+      </c>
+      <c r="F19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" t="s">
+        <v>190</v>
+      </c>
+      <c r="D20" t="s">
+        <v>244</v>
+      </c>
+      <c r="E20" t="s">
+        <v>241</v>
+      </c>
+      <c r="F20" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" t="s">
+        <v>191</v>
+      </c>
+      <c r="D21" t="s">
+        <v>212</v>
+      </c>
+      <c r="E21" t="s">
+        <v>277</v>
+      </c>
+      <c r="F21" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" t="s">
+        <v>192</v>
+      </c>
+      <c r="D22" t="s">
+        <v>219</v>
+      </c>
+      <c r="E22" t="s">
+        <v>278</v>
+      </c>
+      <c r="F22" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" t="s">
+        <v>193</v>
+      </c>
+      <c r="D23" t="s">
+        <v>238</v>
+      </c>
+      <c r="E23" t="s">
+        <v>279</v>
+      </c>
+      <c r="F23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" t="s">
+        <v>194</v>
+      </c>
+      <c r="D24" t="s">
+        <v>245</v>
+      </c>
+      <c r="E24" t="s">
+        <v>272</v>
+      </c>
+      <c r="F24" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" t="s">
+        <v>195</v>
+      </c>
+      <c r="D25" t="s">
+        <v>216</v>
+      </c>
+      <c r="E25" t="s">
+        <v>265</v>
+      </c>
+      <c r="F25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" t="s">
+        <v>196</v>
+      </c>
+      <c r="D26" t="s">
+        <v>246</v>
+      </c>
+      <c r="E26" t="s">
+        <v>186</v>
+      </c>
+      <c r="F26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D27" t="s">
+        <v>247</v>
+      </c>
+      <c r="E27" t="s">
+        <v>234</v>
+      </c>
+      <c r="F27" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" t="s">
+        <v>178</v>
+      </c>
+      <c r="D28" t="s">
+        <v>178</v>
+      </c>
+      <c r="E28" t="s">
+        <v>178</v>
+      </c>
+      <c r="F28" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" t="s">
+        <v>191</v>
+      </c>
+      <c r="D29" t="s">
+        <v>223</v>
+      </c>
+      <c r="E29" t="s">
+        <v>280</v>
+      </c>
+      <c r="F29" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" t="s">
+        <v>198</v>
+      </c>
+      <c r="D30" t="s">
+        <v>248</v>
+      </c>
+      <c r="E30" t="s">
+        <v>281</v>
+      </c>
+      <c r="F30" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" t="s">
+        <v>199</v>
+      </c>
+      <c r="D31" t="s">
+        <v>223</v>
+      </c>
+      <c r="E31" t="s">
+        <v>282</v>
+      </c>
+      <c r="F31" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" t="s">
+        <v>200</v>
+      </c>
+      <c r="D32" t="s">
+        <v>249</v>
+      </c>
+      <c r="E32" t="s">
+        <v>198</v>
+      </c>
+      <c r="F32" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" t="s">
+        <v>201</v>
+      </c>
+      <c r="D33" t="s">
+        <v>250</v>
+      </c>
+      <c r="E33" t="s">
+        <v>283</v>
+      </c>
+      <c r="F33" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" t="s">
+        <v>202</v>
+      </c>
+      <c r="D34" t="s">
+        <v>251</v>
+      </c>
+      <c r="E34" t="s">
+        <v>284</v>
+      </c>
+      <c r="F34" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" t="s">
+        <v>195</v>
+      </c>
+      <c r="D35" t="s">
+        <v>252</v>
+      </c>
+      <c r="E35" t="s">
+        <v>285</v>
+      </c>
+      <c r="F35" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" t="s">
+        <v>203</v>
+      </c>
+      <c r="D36" t="s">
+        <v>184</v>
+      </c>
+      <c r="E36" t="s">
+        <v>286</v>
+      </c>
+      <c r="F36" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" t="s">
+        <v>178</v>
+      </c>
+      <c r="D37" t="s">
+        <v>178</v>
+      </c>
+      <c r="E37" t="s">
+        <v>178</v>
+      </c>
+      <c r="F37" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" t="s">
+        <v>199</v>
+      </c>
+      <c r="D38" t="s">
+        <v>212</v>
+      </c>
+      <c r="E38" t="s">
+        <v>287</v>
+      </c>
+      <c r="F38" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" t="s">
+        <v>182</v>
+      </c>
+      <c r="D39" t="s">
+        <v>202</v>
+      </c>
+      <c r="E39" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
+        <v>44</v>
+      </c>
+      <c r="B40" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" t="s">
+        <v>182</v>
+      </c>
+      <c r="D40" t="s">
+        <v>214</v>
+      </c>
+      <c r="E40" t="s">
+        <v>289</v>
+      </c>
+      <c r="F40" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" t="s">
+        <v>178</v>
+      </c>
+      <c r="D41" t="s">
+        <v>178</v>
+      </c>
+      <c r="E41" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" t="s">
+        <v>178</v>
+      </c>
+      <c r="D42" t="s">
+        <v>178</v>
+      </c>
+      <c r="E42" t="s">
+        <v>178</v>
+      </c>
+      <c r="F42" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
+        <v>47</v>
+      </c>
+      <c r="B43" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" t="s">
+        <v>178</v>
+      </c>
+      <c r="D43" t="s">
+        <v>178</v>
+      </c>
+      <c r="E43" t="s">
+        <v>178</v>
+      </c>
+      <c r="F43" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
+        <v>48</v>
+      </c>
+      <c r="B44" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" t="s">
+        <v>199</v>
+      </c>
+      <c r="D44" t="s">
+        <v>212</v>
+      </c>
+      <c r="E44" t="s">
+        <v>179</v>
+      </c>
+      <c r="F44" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
+        <v>49</v>
+      </c>
+      <c r="B45" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" t="s">
+        <v>191</v>
+      </c>
+      <c r="D45" t="s">
+        <v>252</v>
+      </c>
+      <c r="E45" t="s">
+        <v>201</v>
+      </c>
+      <c r="F45" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
+        <v>50</v>
+      </c>
+      <c r="B46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" t="s">
+        <v>204</v>
+      </c>
+      <c r="D46" t="s">
+        <v>212</v>
+      </c>
+      <c r="E46" t="s">
+        <v>256</v>
+      </c>
+      <c r="F46" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
+        <v>51</v>
+      </c>
+      <c r="B47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" t="s">
+        <v>205</v>
+      </c>
+      <c r="D47" t="s">
+        <v>211</v>
+      </c>
+      <c r="E47" t="s">
+        <v>290</v>
+      </c>
+      <c r="F47" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
+        <v>52</v>
+      </c>
+      <c r="B48" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48" t="s">
+        <v>206</v>
+      </c>
+      <c r="D48" t="s">
+        <v>253</v>
+      </c>
+      <c r="E48" t="s">
+        <v>291</v>
+      </c>
+      <c r="F48" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
+        <v>53</v>
+      </c>
+      <c r="B49" t="s">
+        <v>139</v>
+      </c>
+      <c r="C49" t="s">
+        <v>207</v>
+      </c>
+      <c r="D49" t="s">
+        <v>205</v>
+      </c>
+      <c r="E49" t="s">
+        <v>211</v>
+      </c>
+      <c r="F49" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
+        <v>54</v>
+      </c>
+      <c r="B50" t="s">
+        <v>140</v>
+      </c>
+      <c r="C50" t="s">
+        <v>208</v>
+      </c>
+      <c r="D50" t="s">
+        <v>254</v>
+      </c>
+      <c r="E50" t="s">
+        <v>265</v>
+      </c>
+      <c r="F50" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
+        <v>55</v>
+      </c>
+      <c r="B51" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51" t="s">
+        <v>209</v>
+      </c>
+      <c r="D51" t="s">
+        <v>191</v>
+      </c>
+      <c r="E51" t="s">
+        <v>202</v>
+      </c>
+      <c r="F51" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
+        <v>56</v>
+      </c>
+      <c r="B52" t="s">
+        <v>142</v>
+      </c>
+      <c r="C52" t="s">
+        <v>210</v>
+      </c>
+      <c r="D52" t="s">
+        <v>214</v>
+      </c>
+      <c r="E52" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
+        <v>57</v>
+      </c>
+      <c r="B53" t="s">
+        <v>143</v>
+      </c>
+      <c r="C53" t="s">
+        <v>211</v>
+      </c>
+      <c r="D53" t="s">
+        <v>255</v>
+      </c>
+      <c r="E53" t="s">
+        <v>191</v>
+      </c>
+      <c r="F53" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
+        <v>58</v>
+      </c>
+      <c r="B54" t="s">
+        <v>144</v>
+      </c>
+      <c r="C54" t="s">
+        <v>212</v>
+      </c>
+      <c r="D54" t="s">
+        <v>223</v>
+      </c>
+      <c r="E54" t="s">
+        <v>293</v>
+      </c>
+      <c r="F54" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
+        <v>59</v>
+      </c>
+      <c r="B55" t="s">
+        <v>145</v>
+      </c>
+      <c r="C55" t="s">
+        <v>204</v>
+      </c>
+      <c r="D55" t="s">
+        <v>182</v>
+      </c>
+      <c r="E55" t="s">
+        <v>287</v>
+      </c>
+      <c r="F55" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
+        <v>60</v>
+      </c>
+      <c r="B56" t="s">
+        <v>146</v>
+      </c>
+      <c r="C56" t="s">
+        <v>204</v>
+      </c>
+      <c r="D56" t="s">
+        <v>223</v>
+      </c>
+      <c r="E56" t="s">
+        <v>294</v>
+      </c>
+      <c r="F56" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
+        <v>61</v>
+      </c>
+      <c r="B57" t="s">
+        <v>147</v>
+      </c>
+      <c r="C57" t="s">
+        <v>211</v>
+      </c>
+      <c r="D57" t="s">
+        <v>204</v>
+      </c>
+      <c r="E57" t="s">
+        <v>182</v>
+      </c>
+      <c r="F57" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
+        <v>62</v>
+      </c>
+      <c r="B58" t="s">
+        <v>148</v>
+      </c>
+      <c r="C58" t="s">
+        <v>212</v>
+      </c>
+      <c r="D58" t="s">
+        <v>256</v>
+      </c>
+      <c r="E58" t="s">
+        <v>295</v>
+      </c>
+      <c r="F58" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
+        <v>63</v>
+      </c>
+      <c r="B59" t="s">
+        <v>149</v>
+      </c>
+      <c r="C59" t="s">
+        <v>213</v>
+      </c>
+      <c r="D59" t="s">
+        <v>257</v>
+      </c>
+      <c r="E59" t="s">
+        <v>264</v>
+      </c>
+      <c r="F59" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
+        <v>64</v>
+      </c>
+      <c r="B60" t="s">
+        <v>150</v>
+      </c>
+      <c r="C60" t="s">
+        <v>214</v>
+      </c>
+      <c r="D60" t="s">
+        <v>258</v>
+      </c>
+      <c r="E60" t="s">
+        <v>296</v>
+      </c>
+      <c r="F60" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
+        <v>65</v>
+      </c>
+      <c r="B61" t="s">
+        <v>151</v>
+      </c>
+      <c r="C61" t="s">
+        <v>215</v>
+      </c>
+      <c r="D61" t="s">
+        <v>259</v>
+      </c>
+      <c r="E61" t="s">
+        <v>297</v>
+      </c>
+      <c r="F61" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
+        <v>66</v>
+      </c>
+      <c r="B62" t="s">
+        <v>152</v>
+      </c>
+      <c r="C62" t="s">
+        <v>212</v>
+      </c>
+      <c r="D62" t="s">
+        <v>195</v>
+      </c>
+      <c r="E62" t="s">
+        <v>298</v>
+      </c>
+      <c r="F62" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
+        <v>67</v>
+      </c>
+      <c r="B63" t="s">
+        <v>153</v>
+      </c>
+      <c r="C63" t="s">
+        <v>216</v>
+      </c>
+      <c r="D63" t="s">
+        <v>186</v>
+      </c>
+      <c r="E63" t="s">
+        <v>190</v>
+      </c>
+      <c r="F63" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
+        <v>68</v>
+      </c>
+      <c r="B64" t="s">
+        <v>154</v>
+      </c>
+      <c r="C64" t="s">
+        <v>217</v>
+      </c>
+      <c r="D64" t="s">
+        <v>260</v>
+      </c>
+      <c r="E64" t="s">
+        <v>241</v>
+      </c>
+      <c r="F64" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
+        <v>69</v>
+      </c>
+      <c r="B65" t="s">
+        <v>155</v>
+      </c>
+      <c r="C65" t="s">
+        <v>218</v>
+      </c>
+      <c r="D65" t="s">
+        <v>212</v>
+      </c>
+      <c r="E65" t="s">
+        <v>299</v>
+      </c>
+      <c r="F65" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
+        <v>70</v>
+      </c>
+      <c r="B66" t="s">
+        <v>156</v>
+      </c>
+      <c r="C66" t="s">
+        <v>219</v>
+      </c>
+      <c r="D66" t="s">
+        <v>221</v>
+      </c>
+      <c r="E66" t="s">
+        <v>185</v>
+      </c>
+      <c r="F66" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
+        <v>71</v>
+      </c>
+      <c r="B67" t="s">
+        <v>157</v>
+      </c>
+      <c r="C67" t="s">
+        <v>178</v>
+      </c>
+      <c r="D67" t="s">
+        <v>178</v>
+      </c>
+      <c r="E67" t="s">
+        <v>178</v>
+      </c>
+      <c r="F67" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
+        <v>72</v>
+      </c>
+      <c r="B68" t="s">
+        <v>158</v>
+      </c>
+      <c r="C68" t="s">
+        <v>187</v>
+      </c>
+      <c r="D68" t="s">
+        <v>235</v>
+      </c>
+      <c r="E68" t="s">
+        <v>300</v>
+      </c>
+      <c r="F68" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
+        <v>73</v>
+      </c>
+      <c r="B69" t="s">
+        <v>159</v>
+      </c>
+      <c r="C69" t="s">
+        <v>220</v>
+      </c>
+      <c r="D69" t="s">
+        <v>261</v>
+      </c>
+      <c r="E69" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
+        <v>74</v>
+      </c>
+      <c r="B70" t="s">
+        <v>160</v>
+      </c>
+      <c r="C70" t="s">
+        <v>221</v>
+      </c>
+      <c r="D70" t="s">
+        <v>262</v>
+      </c>
+      <c r="E70" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
+        <v>75</v>
+      </c>
+      <c r="B71" t="s">
+        <v>161</v>
+      </c>
+      <c r="C71" t="s">
+        <v>213</v>
+      </c>
+      <c r="D71" t="s">
+        <v>195</v>
+      </c>
+      <c r="E71" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
+        <v>76</v>
+      </c>
+      <c r="B72" t="s">
+        <v>162</v>
+      </c>
+      <c r="C72" t="s">
+        <v>222</v>
+      </c>
+      <c r="D72" t="s">
+        <v>206</v>
+      </c>
+      <c r="E72" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
+        <v>77</v>
+      </c>
+      <c r="B73" t="s">
+        <v>163</v>
+      </c>
+      <c r="C73" t="s">
+        <v>182</v>
+      </c>
+      <c r="D73" t="s">
+        <v>223</v>
+      </c>
+      <c r="E73" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
+        <v>78</v>
+      </c>
+      <c r="B74" t="s">
+        <v>164</v>
+      </c>
+      <c r="C74" t="s">
+        <v>199</v>
+      </c>
+      <c r="D74" t="s">
+        <v>223</v>
+      </c>
+      <c r="E74" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
+        <v>79</v>
+      </c>
+      <c r="B75" t="s">
+        <v>165</v>
+      </c>
+      <c r="C75" t="s">
+        <v>223</v>
+      </c>
+      <c r="D75" t="s">
+        <v>263</v>
+      </c>
+      <c r="E75" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
+        <v>80</v>
+      </c>
+      <c r="B76" t="s">
+        <v>166</v>
+      </c>
+      <c r="C76" t="s">
+        <v>199</v>
+      </c>
+      <c r="D76" t="s">
+        <v>210</v>
+      </c>
+      <c r="E76" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
+        <v>81</v>
+      </c>
+      <c r="B77" t="s">
+        <v>167</v>
+      </c>
+      <c r="C77" t="s">
+        <v>224</v>
+      </c>
+      <c r="D77" t="s">
+        <v>193</v>
+      </c>
+      <c r="E77" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
+        <v>82</v>
+      </c>
+      <c r="B78" t="s">
+        <v>168</v>
+      </c>
+      <c r="C78" t="s">
+        <v>214</v>
+      </c>
+      <c r="D78" t="s">
+        <v>230</v>
+      </c>
+      <c r="E78" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
+        <v>83</v>
+      </c>
+      <c r="B79" t="s">
+        <v>169</v>
+      </c>
+      <c r="C79" t="s">
+        <v>183</v>
+      </c>
+      <c r="D79" t="s">
+        <v>264</v>
+      </c>
+      <c r="E79" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
+        <v>84</v>
+      </c>
+      <c r="B80" t="s">
+        <v>170</v>
+      </c>
+      <c r="C80" t="s">
+        <v>225</v>
+      </c>
+      <c r="D80" t="s">
+        <v>265</v>
+      </c>
+      <c r="E80" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
+        <v>85</v>
+      </c>
+      <c r="B81" t="s">
+        <v>171</v>
+      </c>
+      <c r="C81" t="s">
+        <v>226</v>
+      </c>
+      <c r="D81" t="s">
+        <v>189</v>
+      </c>
+      <c r="E81" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
+        <v>86</v>
+      </c>
+      <c r="B82" t="s">
+        <v>172</v>
+      </c>
+      <c r="C82" t="s">
+        <v>205</v>
+      </c>
+      <c r="D82" t="s">
+        <v>266</v>
+      </c>
+      <c r="E82" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
+        <v>87</v>
+      </c>
+      <c r="B83" t="s">
+        <v>173</v>
+      </c>
+      <c r="C83" t="s">
+        <v>227</v>
+      </c>
+      <c r="D83" t="s">
+        <v>266</v>
+      </c>
+      <c r="E83" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
+        <v>88</v>
+      </c>
+      <c r="C84" t="s">
+        <v>205</v>
+      </c>
+      <c r="D84" t="s">
+        <v>211</v>
+      </c>
+      <c r="E84" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
+        <v>89</v>
+      </c>
+      <c r="C85" t="s">
+        <v>228</v>
+      </c>
+      <c r="D85" t="s">
+        <v>256</v>
+      </c>
+      <c r="E85" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
+        <v>90</v>
+      </c>
+      <c r="B86" t="s">
+        <v>174</v>
+      </c>
+      <c r="C86" t="s">
+        <v>229</v>
+      </c>
+      <c r="D86" t="s">
+        <v>210</v>
+      </c>
+      <c r="E86" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
-        <v>88</v>
+        <v>91</v>
+      </c>
+      <c r="C87" t="s">
+        <v>230</v>
+      </c>
+      <c r="D87" t="s">
+        <v>267</v>
+      </c>
+      <c r="E87" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/Tabela Cetesb/meuarquivo.xlsx
+++ b/Tabela Cetesb/meuarquivo.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://servmar365-my.sharepoint.com/personal/henrique_canhadas_servmarambiental_com/Documents/Documentos/Codigos/GitHub/Python/Tabela Cetesb/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_07ED43FA291B4A00F12D4C4D656919D3797892BE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48653B4C-4F85-45D6-A553-C727329798AD}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1005,8 +1011,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1069,13 +1075,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1113,7 +1127,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1147,6 +1161,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1181,9 +1196,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1356,14 +1372,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.7265625" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1383,7 +1409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1403,7 +1429,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1423,7 +1449,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1443,7 +1469,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1463,7 +1489,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1483,7 +1509,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1503,7 +1529,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1523,7 +1549,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1543,7 +1569,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1563,7 +1589,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1583,7 +1609,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1603,7 +1629,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1623,7 +1649,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1643,7 +1669,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1663,7 +1689,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1683,7 +1709,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1703,7 +1729,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1723,7 +1749,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1743,7 +1769,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1763,7 +1789,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1783,7 +1809,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1803,7 +1829,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1823,7 +1849,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1843,7 +1869,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1863,7 +1889,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1883,7 +1909,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1903,7 +1929,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1923,7 +1949,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1943,7 +1969,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1963,7 +1989,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1983,7 +2009,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -2003,7 +2029,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -2023,7 +2049,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -2043,7 +2069,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -2063,7 +2089,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -2083,7 +2109,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -2103,7 +2129,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -2123,7 +2149,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -2140,7 +2166,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -2160,7 +2186,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -2177,7 +2203,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -2197,7 +2223,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -2217,7 +2243,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -2237,7 +2263,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -2257,7 +2283,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -2277,7 +2303,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -2297,7 +2323,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -2317,7 +2343,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -2337,7 +2363,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -2357,7 +2383,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -2377,7 +2403,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -2394,7 +2420,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -2414,7 +2440,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -2434,7 +2460,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -2454,7 +2480,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -2474,7 +2500,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -2494,7 +2520,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -2514,7 +2540,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -2534,7 +2560,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -2554,7 +2580,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -2574,7 +2600,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -2594,7 +2620,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -2614,7 +2640,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -2634,7 +2660,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -2654,7 +2680,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -2674,7 +2700,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -2694,7 +2720,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -2714,7 +2740,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -2731,7 +2757,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -2748,7 +2774,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -2765,7 +2791,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -2782,7 +2808,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -2799,7 +2825,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -2816,7 +2842,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -2833,7 +2859,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -2850,7 +2876,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -2867,7 +2893,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -2884,7 +2910,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -2901,7 +2927,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>84</v>
       </c>
@@ -2918,7 +2944,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>85</v>
       </c>
@@ -2935,7 +2961,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>86</v>
       </c>
@@ -2952,7 +2978,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>87</v>
       </c>
@@ -2969,7 +2995,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>88</v>
       </c>
@@ -2983,7 +3009,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>89</v>
       </c>
@@ -2997,7 +3023,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>90</v>
       </c>
@@ -3014,7 +3040,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>91</v>
       </c>

--- a/Tabela Cetesb/meuarquivo.xlsx
+++ b/Tabela Cetesb/meuarquivo.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://servmar365-my.sharepoint.com/personal/henrique_canhadas_servmarambiental_com/Documents/Documentos/Codigos/GitHub/Python/Tabela Cetesb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_07ED43FA291B4A00F12D4C4D656919D3797892BE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48653B4C-4F85-45D6-A553-C727329798AD}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="11_42F580F53F4308100D2D4CDB9D6E3E99787877A4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0947505-931E-45D5-A6C4-6A1C0BF6B52E}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="342">
   <si>
     <t>Analyte</t>
   </si>
@@ -1006,13 +1006,145 @@
   </si>
   <si>
     <t>9</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>0,03 (b)</t>
+  </si>
+  <si>
+    <t>20 (c)</t>
+  </si>
+  <si>
+    <t>1 (b)</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>0.17</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">20 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>(b)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">50 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>(b)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">0,03 </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>(b)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">20 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>(c)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>(b)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1028,16 +1160,121 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="6.5"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB8CCE3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD7E3BD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAD3B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE4B8B7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCC0D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC2D59B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB3DCE7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF79546"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD99493"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE884D2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1060,14 +1297,309 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1373,23 +1905,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F87"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="18.7265625" customWidth="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.81640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1409,7 +1933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1428,8 +1952,13 @@
       <c r="F2" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2" s="5">
+        <v>6</v>
+      </c>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1448,8 +1977,13 @@
       <c r="F3" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3" s="2">
+        <v>10</v>
+      </c>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1468,8 +2002,13 @@
       <c r="F4" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4" s="2">
+        <v>700</v>
+      </c>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1488,8 +2027,13 @@
       <c r="F5" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5" s="2">
+        <v>2400</v>
+      </c>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1508,8 +2052,13 @@
       <c r="F6" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6" s="3">
+        <v>3</v>
+      </c>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1528,8 +2077,13 @@
       <c r="F7" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G7" s="2">
+        <v>10</v>
+      </c>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1548,8 +2102,13 @@
       <c r="F8" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G8" s="2">
+        <v>70</v>
+      </c>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1568,8 +2127,13 @@
       <c r="F9" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G9" s="2">
+        <v>2000</v>
+      </c>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1588,8 +2152,13 @@
       <c r="F10" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G10" s="2">
+        <v>50</v>
+      </c>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1608,8 +2177,13 @@
       <c r="F11" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G11" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1628,8 +2202,13 @@
       <c r="F12" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1648,8 +2227,13 @@
       <c r="F13" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G13" s="2">
+        <v>30</v>
+      </c>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1668,8 +2252,13 @@
       <c r="F14" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G14" s="2">
+        <v>70</v>
+      </c>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1688,8 +2277,13 @@
       <c r="F15" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G15" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1708,8 +2302,13 @@
       <c r="F16" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G16" s="2">
+        <v>50</v>
+      </c>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1728,8 +2327,13 @@
       <c r="F17" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G17" s="3">
+        <v>40</v>
+      </c>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1748,8 +2352,13 @@
       <c r="F18" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G18" s="2">
+        <v>1800</v>
+      </c>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1768,8 +2377,13 @@
       <c r="F19" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G19" s="8">
+        <v>5</v>
+      </c>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1788,8 +2402,13 @@
       <c r="F20" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G20" s="6">
+        <v>20</v>
+      </c>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1808,8 +2427,13 @@
       <c r="F21" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G21" s="6">
+        <v>300</v>
+      </c>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1828,8 +2452,13 @@
       <c r="F22" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G22" s="7">
+        <v>30</v>
+      </c>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1848,8 +2477,13 @@
       <c r="F23" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G23" s="6">
+        <v>500</v>
+      </c>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1868,8 +2502,13 @@
       <c r="F24" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G24" s="14">
+        <v>900</v>
+      </c>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1888,8 +2527,13 @@
       <c r="F25" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G25" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1908,8 +2552,13 @@
       <c r="F26" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G26" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1928,8 +2577,13 @@
       <c r="F27" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G27" s="10">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2602,13 @@
       <c r="F28" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G28" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1968,8 +2627,13 @@
       <c r="F29" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G29" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1988,8 +2652,13 @@
       <c r="F30" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G30" s="9">
+        <v>41</v>
+      </c>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -2008,8 +2677,13 @@
       <c r="F31" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G31" s="13">
+        <v>0.04</v>
+      </c>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -2028,8 +2702,13 @@
       <c r="F32" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G32" s="9">
+        <v>140</v>
+      </c>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -2048,8 +2727,13 @@
       <c r="F33" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G33" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -2068,8 +2752,13 @@
       <c r="F34" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G34" s="9">
+        <v>60</v>
+      </c>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -2088,8 +2777,13 @@
       <c r="F35" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G35" s="22">
+        <v>120</v>
+      </c>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -2108,8 +2802,13 @@
       <c r="F36" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G36" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -2128,8 +2827,13 @@
       <c r="F37" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G37" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="H37" s="59"/>
+      <c r="I37" s="59"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -2148,8 +2852,13 @@
       <c r="F38" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G38" s="16">
+        <v>300</v>
+      </c>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -2165,8 +2874,14 @@
       <c r="E39" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F39" t="s">
+        <v>321</v>
+      </c>
+      <c r="G39" s="17"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="64"/>
+    </row>
+    <row r="40" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -2185,8 +2900,13 @@
       <c r="F40" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G40" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="H40" s="65"/>
+      <c r="I40" s="65"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -2202,8 +2922,14 @@
       <c r="E41" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F41" t="s">
+        <v>321</v>
+      </c>
+      <c r="G41" s="19"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="66"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -2222,8 +2948,13 @@
       <c r="F42" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G42" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -2242,8 +2973,13 @@
       <c r="F43" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G43" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="H43" s="59"/>
+      <c r="I43" s="59"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -2262,8 +2998,13 @@
       <c r="F44" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G44" s="15">
+        <v>1.8</v>
+      </c>
+      <c r="H44" s="61"/>
+      <c r="I44" s="61"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -2282,8 +3023,13 @@
       <c r="F45" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G45" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="H45" s="61"/>
+      <c r="I45" s="61"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -2302,8 +3048,13 @@
       <c r="F46" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G46" s="23">
+        <v>53</v>
+      </c>
+      <c r="H46" s="60"/>
+      <c r="I46" s="60"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -2322,8 +3073,13 @@
       <c r="F47" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G47" s="24">
+        <v>5</v>
+      </c>
+      <c r="H47" s="58"/>
+      <c r="I47" s="58"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -2342,8 +3098,13 @@
       <c r="F48" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G48" s="25">
+        <v>2000</v>
+      </c>
+      <c r="H48" s="57"/>
+      <c r="I48" s="57"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -2362,8 +3123,13 @@
       <c r="F49" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G49" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="H49" s="68"/>
+      <c r="I49" s="68"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -2382,8 +3148,13 @@
       <c r="F50" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G50" s="26">
+        <v>30</v>
+      </c>
+      <c r="H50" s="57"/>
+      <c r="I50" s="57"/>
+    </row>
+    <row r="51" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -2402,8 +3173,13 @@
       <c r="F51" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G51" s="27" t="s">
+        <v>338</v>
+      </c>
+      <c r="H51" s="69"/>
+      <c r="I51" s="69"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -2419,8 +3195,14 @@
       <c r="E52" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F52" t="s">
+        <v>323</v>
+      </c>
+      <c r="G52" s="28"/>
+      <c r="H52" s="65"/>
+      <c r="I52" s="65"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -2439,8 +3221,13 @@
       <c r="F53" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G53" s="29">
+        <v>4</v>
+      </c>
+      <c r="H53" s="56"/>
+      <c r="I53" s="56"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -2459,8 +3246,13 @@
       <c r="F54" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G54" s="26">
+        <v>40</v>
+      </c>
+      <c r="H54" s="57"/>
+      <c r="I54" s="57"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -2479,8 +3271,13 @@
       <c r="F55" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G55" s="32">
+        <v>20</v>
+      </c>
+      <c r="H55" s="60"/>
+      <c r="I55" s="60"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -2499,8 +3296,13 @@
       <c r="F56" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G56" s="31">
+        <v>300</v>
+      </c>
+      <c r="H56" s="57"/>
+      <c r="I56" s="57"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -2519,8 +3321,13 @@
       <c r="F57" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G57" s="31">
+        <v>4</v>
+      </c>
+      <c r="H57" s="57"/>
+      <c r="I57" s="57"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -2539,8 +3346,13 @@
       <c r="F58" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G58" s="35">
+        <v>30</v>
+      </c>
+      <c r="H58" s="60"/>
+      <c r="I58" s="60"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -2559,8 +3371,13 @@
       <c r="F59" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G59" s="36">
+        <v>200</v>
+      </c>
+      <c r="H59" s="58"/>
+      <c r="I59" s="58"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -2579,8 +3396,13 @@
       <c r="F60" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G60" s="33">
+        <v>10.5</v>
+      </c>
+      <c r="H60" s="61"/>
+      <c r="I60" s="61"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -2599,8 +3421,13 @@
       <c r="F61" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G61" s="34">
+        <v>600</v>
+      </c>
+      <c r="H61" s="57"/>
+      <c r="I61" s="57"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -2619,8 +3446,13 @@
       <c r="F62" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G62" s="34">
+        <v>200</v>
+      </c>
+      <c r="H62" s="57"/>
+      <c r="I62" s="57"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -2639,8 +3471,13 @@
       <c r="F63" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G63" s="33">
+        <v>10.5</v>
+      </c>
+      <c r="H63" s="61"/>
+      <c r="I63" s="61"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -2659,8 +3496,13 @@
       <c r="F64" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G64" s="34">
+        <v>180</v>
+      </c>
+      <c r="H64" s="57"/>
+      <c r="I64" s="57"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -2679,8 +3521,13 @@
       <c r="F65" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G65" s="34">
+        <v>9</v>
+      </c>
+      <c r="H65" s="57"/>
+      <c r="I65" s="57"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -2699,8 +3546,13 @@
       <c r="F66" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G66" s="37">
+        <v>600</v>
+      </c>
+      <c r="H66" s="60"/>
+      <c r="I66" s="60"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -2719,8 +3571,13 @@
       <c r="F67" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G67" s="38" t="s">
+        <v>336</v>
+      </c>
+      <c r="H67" s="59"/>
+      <c r="I67" s="59"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -2739,8 +3596,13 @@
       <c r="F68" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G68" s="39">
+        <v>900</v>
+      </c>
+      <c r="H68" s="57"/>
+      <c r="I68" s="57"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -2756,8 +3618,16 @@
       <c r="E69" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F69" t="s">
+        <v>250</v>
+      </c>
+      <c r="G69" s="40">
+        <v>8</v>
+      </c>
+      <c r="H69" s="60"/>
+      <c r="I69" s="60"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -2773,8 +3643,16 @@
       <c r="E70" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F70" t="s">
+        <v>328</v>
+      </c>
+      <c r="G70" s="41">
+        <v>4.8</v>
+      </c>
+      <c r="H70" s="61"/>
+      <c r="I70" s="61"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -2790,8 +3668,16 @@
       <c r="E71" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F71" t="s">
+        <v>219</v>
+      </c>
+      <c r="G71" s="42">
+        <v>14</v>
+      </c>
+      <c r="H71" s="57"/>
+      <c r="I71" s="57"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -2807,8 +3693,16 @@
       <c r="E72" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F72" t="s">
+        <v>248</v>
+      </c>
+      <c r="G72" s="42">
+        <v>600</v>
+      </c>
+      <c r="H72" s="57"/>
+      <c r="I72" s="57"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -2824,8 +3718,16 @@
       <c r="E73" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F73" t="s">
+        <v>329</v>
+      </c>
+      <c r="G73" s="50" t="s">
+        <v>339</v>
+      </c>
+      <c r="H73" s="70"/>
+      <c r="I73" s="70"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -2841,8 +3743,14 @@
       <c r="E74" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F74" t="s">
+        <v>329</v>
+      </c>
+      <c r="G74" s="50"/>
+      <c r="H74" s="70"/>
+      <c r="I74" s="70"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -2858,8 +3766,16 @@
       <c r="E75" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F75" t="s">
+        <v>212</v>
+      </c>
+      <c r="G75" s="51">
+        <v>0.6</v>
+      </c>
+      <c r="H75" s="71"/>
+      <c r="I75" s="71"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -2875,8 +3791,16 @@
       <c r="E76" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F76" t="s">
+        <v>216</v>
+      </c>
+      <c r="G76" s="44">
+        <v>7</v>
+      </c>
+      <c r="H76" s="57"/>
+      <c r="I76" s="57"/>
+    </row>
+    <row r="77" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -2892,8 +3816,16 @@
       <c r="E77" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F77" t="s">
+        <v>330</v>
+      </c>
+      <c r="G77" s="45" t="s">
+        <v>340</v>
+      </c>
+      <c r="H77" s="72"/>
+      <c r="I77" s="72"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -2909,8 +3841,14 @@
       <c r="E78" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F78" t="s">
+        <v>331</v>
+      </c>
+      <c r="G78" s="46"/>
+      <c r="H78" s="64"/>
+      <c r="I78" s="64"/>
+    </row>
+    <row r="79" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -2926,8 +3864,16 @@
       <c r="E79" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F79" t="s">
+        <v>331</v>
+      </c>
+      <c r="G79" s="47" t="s">
+        <v>341</v>
+      </c>
+      <c r="H79" s="65"/>
+      <c r="I79" s="65"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>84</v>
       </c>
@@ -2943,8 +3889,14 @@
       <c r="E80" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F80" t="s">
+        <v>331</v>
+      </c>
+      <c r="G80" s="48"/>
+      <c r="H80" s="66"/>
+      <c r="I80" s="66"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>85</v>
       </c>
@@ -2960,8 +3912,16 @@
       <c r="E81" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F81" t="s">
+        <v>332</v>
+      </c>
+      <c r="G81" s="49">
+        <v>0.05</v>
+      </c>
+      <c r="H81" s="73"/>
+      <c r="I81" s="73"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>86</v>
       </c>
@@ -2977,8 +3937,16 @@
       <c r="E82" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F82" t="s">
+        <v>333</v>
+      </c>
+      <c r="G82" s="43">
+        <v>0.17</v>
+      </c>
+      <c r="H82" s="63"/>
+      <c r="I82" s="63"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>87</v>
       </c>
@@ -2994,8 +3962,16 @@
       <c r="E83" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F83" t="s">
+        <v>196</v>
+      </c>
+      <c r="G83" s="44">
+        <v>2</v>
+      </c>
+      <c r="H83" s="57"/>
+      <c r="I83" s="57"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>88</v>
       </c>
@@ -3008,8 +3984,16 @@
       <c r="E84" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F84" t="s">
+        <v>334</v>
+      </c>
+      <c r="G84" s="52">
+        <v>3.5</v>
+      </c>
+      <c r="H84" s="71"/>
+      <c r="I84" s="71"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>89</v>
       </c>
@@ -3022,8 +4006,16 @@
       <c r="E85" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F85" t="s">
+        <v>290</v>
+      </c>
+      <c r="G85" s="53">
+        <v>0.09</v>
+      </c>
+      <c r="H85" s="74"/>
+      <c r="I85" s="74"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>90</v>
       </c>
@@ -3039,8 +4031,16 @@
       <c r="E86" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F86" t="s">
+        <v>335</v>
+      </c>
+      <c r="G86" s="54">
+        <v>42</v>
+      </c>
+      <c r="H86" s="60"/>
+      <c r="I86" s="60"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>91</v>
       </c>
@@ -3053,6 +4053,14 @@
       <c r="E87" t="s">
         <v>206</v>
       </c>
+      <c r="F87" t="s">
+        <v>178</v>
+      </c>
+      <c r="G87" s="55" t="s">
+        <v>336</v>
+      </c>
+      <c r="H87" s="75"/>
+      <c r="I87" s="75"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tabela Cetesb/meuarquivo.xlsx
+++ b/Tabela Cetesb/meuarquivo.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://servmar365-my.sharepoint.com/personal/henrique_canhadas_servmarambiental_com/Documents/Documentos/Codigos/GitHub/Python/Tabela Cetesb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="11_42F580F53F4308100D2D4CDB9D6E3E99787877A4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0947505-931E-45D5-A6C4-6A1C0BF6B52E}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="11_42F580F53F4308100D2D4CDB9D6E3E99787877A4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B23C7356-7BAF-4B66-8A54-2AD1B9355B6D}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43200" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1616,6 +1616,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1912,6 +1916,12 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
